--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="365">
   <si>
     <t>Top Level Folder</t>
   </si>
@@ -1105,6 +1105,12 @@
   </si>
   <si>
     <t>No; using global values</t>
+  </si>
+  <si>
+    <t>PDiCECpDoC</t>
+  </si>
+  <si>
+    <t>Percent Decline in CCS Equipment Cost per Doubling of Capacity</t>
   </si>
 </sst>
 </file>
@@ -1638,42 +1644,42 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>194</v>
       </c>
@@ -1681,7 +1687,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>239</v>
       </c>
@@ -1792,7 +1798,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2338,38 +2344,38 @@
         <v>340</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>305</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>7</v>
+        <v>363</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>364</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>194</v>
       </c>
       <c r="F31" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2377,13 +2383,13 @@
         <v>57</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>194</v>
+        <v>62</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>339</v>
@@ -2394,13 +2400,13 @@
         <v>57</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>195</v>
+        <v>63</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>339</v>
@@ -2411,33 +2417,33 @@
         <v>57</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>193</v>
+        <v>64</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>271</v>
+        <v>61</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>272</v>
+        <v>65</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>193</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2445,16 +2451,16 @@
         <v>66</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>193</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2462,16 +2468,16 @@
         <v>66</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>194</v>
+        <v>318</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2479,78 +2485,78 @@
         <v>66</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>193</v>
+        <v>316</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>67</v>
+        <v>267</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>82</v>
+        <v>268</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>333</v>
+        <v>67</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>194</v>
+        <v>82</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>68</v>
+        <v>333</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>195</v>
+        <v>334</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>330</v>
+        <v>68</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>348</v>
+        <v>83</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>195</v>
@@ -2564,50 +2570,50 @@
         <v>66</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>69</v>
+        <v>330</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>194</v>
+        <v>348</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>308</v>
+        <v>69</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>198</v>
+        <v>84</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>195</v>
+        <v>307</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2615,67 +2621,67 @@
         <v>66</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F47" s="13" t="s">
+      <c r="E48" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F48" s="13" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>357</v>
+        <v>71</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>358</v>
+        <v>86</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2683,10 +2689,10 @@
         <v>66</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>264</v>
+        <v>357</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>265</v>
+        <v>358</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>193</v>
@@ -2696,14 +2702,14 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>87</v>
+      <c r="B52" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>193</v>
@@ -2712,109 +2718,109 @@
         <v>340</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>195</v>
+        <v>87</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="F53" s="13" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>196</v>
+        <v>88</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>193</v>
+        <v>90</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>294</v>
+        <v>75</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>193</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>195</v>
+        <v>293</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>91</v>
+        <v>269</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>195</v>
@@ -2823,41 +2829,41 @@
         <v>337</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>201</v>
+        <v>91</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>196</v>
+        <v>92</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2865,33 +2871,33 @@
         <v>66</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>93</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>193</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2899,33 +2905,33 @@
         <v>66</v>
       </c>
       <c r="B63" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C64" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F64" s="13" t="s">
         <v>352</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2933,13 +2939,13 @@
         <v>66</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>194</v>
+        <v>94</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F65" s="13" t="s">
         <v>337</v>
@@ -2967,10 +2973,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>194</v>
@@ -2984,10 +2990,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>194</v>
@@ -3001,16 +3007,16 @@
         <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>196</v>
+        <v>323</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -3018,16 +3024,16 @@
         <v>66</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>328</v>
+        <v>80</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>195</v>
+        <v>95</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -3035,13 +3041,13 @@
         <v>66</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>194</v>
+        <v>329</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F71" s="13" t="s">
         <v>337</v>
@@ -3052,178 +3058,178 @@
         <v>66</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>195</v>
+        <v>325</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>193</v>
+        <v>327</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F73" s="13" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>291</v>
+        <v>332</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>193</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E75" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F75" s="13" t="s">
+      <c r="E76" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F76" s="13" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B77" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C77" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>193</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>193</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>194</v>
+        <v>105</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E80" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F80" s="13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>193</v>
+      <c r="E81" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3231,16 +3237,16 @@
         <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>193</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3248,33 +3254,33 @@
         <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>297</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>195</v>
+        <v>123</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="F83" s="13" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>114</v>
+        <v>297</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>194</v>
+        <v>298</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3282,30 +3288,30 @@
         <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>195</v>
+        <v>124</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="F85" s="13" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>195</v>
@@ -3314,58 +3320,58 @@
         <v>337</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>199</v>
+        <v>127</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>186</v>
+        <v>117</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>195</v>
+        <v>128</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>195</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3373,10 +3379,10 @@
         <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>195</v>
@@ -3390,27 +3396,27 @@
         <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>194</v>
+        <v>130</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F91" s="13" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>194</v>
@@ -3424,61 +3430,61 @@
         <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>195</v>
+        <v>132</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>193</v>
+        <v>133</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>195</v>
+        <v>180</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="F95" s="13" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>195</v>
@@ -3504,18 +3510,18 @@
         <v>337</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F98" s="13" t="s">
         <v>340</v>
@@ -3526,67 +3532,67 @@
         <v>173</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E101" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F100" s="13" t="s">
+      <c r="F101" s="13" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F101" s="13" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>134</v>
+        <v>311</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>135</v>
+        <v>313</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>136</v>
+        <v>314</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>196</v>
+        <v>315</v>
       </c>
       <c r="F102" s="13" t="s">
         <v>336</v>
@@ -3594,19 +3600,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>193</v>
+        <v>136</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3614,16 +3620,16 @@
         <v>137</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>194</v>
+        <v>152</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3631,16 +3637,16 @@
         <v>137</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>195</v>
+        <v>153</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3648,13 +3654,13 @@
         <v>137</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>193</v>
+        <v>154</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F106" s="13" t="s">
         <v>340</v>
@@ -3665,10 +3671,10 @@
         <v>137</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>193</v>
@@ -3682,16 +3688,16 @@
         <v>137</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>195</v>
+        <v>156</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3699,10 +3705,10 @@
         <v>137</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>195</v>
@@ -3716,10 +3722,10 @@
         <v>137</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>195</v>
@@ -3733,13 +3739,13 @@
         <v>137</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>194</v>
+        <v>159</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F111" s="13" t="s">
         <v>337</v>
@@ -3750,16 +3756,16 @@
         <v>137</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>193</v>
+        <v>160</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3767,16 +3773,16 @@
         <v>137</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>288</v>
+        <v>147</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>195</v>
+        <v>161</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3784,33 +3790,33 @@
         <v>137</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>148</v>
+        <v>288</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>162</v>
+        <v>289</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>195</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>194</v>
+        <v>162</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3818,19 +3824,16 @@
         <v>137</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>193</v>
+        <v>163</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3838,55 +3841,75 @@
         <v>137</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C118" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E117" s="6" t="s">
+      <c r="E118" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="F117" s="13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="14" t="s">
+      <c r="F118" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B119" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C118" s="14" t="s">
+      <c r="C119" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="E119" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F118" s="13" t="s">
+      <c r="F119" s="13" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B120" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E119" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F119" s="13" t="s">
+      <c r="E120" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F120" s="13" t="s">
         <v>340</v>
       </c>
     </row>

--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="368">
   <si>
     <t>Top Level Folder</t>
   </si>
@@ -1111,6 +1111,15 @@
   </si>
   <si>
     <t>Percent Decline in CCS Equipment Cost per Doubling of Capacity</t>
+  </si>
+  <si>
+    <t>Recipient Industrial Fuel Fractions from Coal, Recipient Industrial Fuel Fractions from Natural Gas</t>
+  </si>
+  <si>
+    <t>PIFURfE</t>
+  </si>
+  <si>
+    <t>Percentage Industry Fuel Use Reduction for Electricity</t>
   </si>
 </sst>
 </file>
@@ -1798,11 +1807,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3362,33 +3371,33 @@
         <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>186</v>
+        <v>366</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>195</v>
+        <v>367</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>195</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3396,10 +3405,10 @@
         <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>195</v>
@@ -3413,27 +3422,27 @@
         <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>194</v>
+        <v>130</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F92" s="13" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>194</v>
@@ -3442,72 +3451,75 @@
         <v>337</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>195</v>
+        <v>132</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>193</v>
+        <v>133</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>195</v>
+        <v>180</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="F96" s="13" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>296</v>
+        <v>175</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>194</v>
+        <v>183</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3515,30 +3527,30 @@
         <v>173</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>176</v>
+        <v>296</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>195</v>
+        <v>295</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F99" s="13" t="s">
         <v>340</v>
@@ -3549,67 +3561,67 @@
         <v>173</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E102" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F101" s="13" t="s">
+      <c r="F102" s="13" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F102" s="13" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>134</v>
+        <v>311</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>135</v>
+        <v>313</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>136</v>
+        <v>314</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>196</v>
+        <v>315</v>
       </c>
       <c r="F103" s="13" t="s">
         <v>336</v>
@@ -3617,19 +3629,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>193</v>
+        <v>136</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3637,16 +3649,16 @@
         <v>137</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>194</v>
+        <v>152</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3654,16 +3666,16 @@
         <v>137</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>195</v>
+        <v>153</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3671,13 +3683,13 @@
         <v>137</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>193</v>
+        <v>154</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F107" s="13" t="s">
         <v>340</v>
@@ -3688,10 +3700,10 @@
         <v>137</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>193</v>
@@ -3705,16 +3717,16 @@
         <v>137</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>195</v>
+        <v>156</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3722,10 +3734,10 @@
         <v>137</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>195</v>
@@ -3739,10 +3751,10 @@
         <v>137</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>195</v>
@@ -3756,13 +3768,13 @@
         <v>137</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>194</v>
+        <v>159</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F112" s="13" t="s">
         <v>337</v>
@@ -3773,16 +3785,16 @@
         <v>137</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>193</v>
+        <v>160</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3790,16 +3802,16 @@
         <v>137</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>288</v>
+        <v>147</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>195</v>
+        <v>161</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3807,33 +3819,33 @@
         <v>137</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>148</v>
+        <v>288</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>162</v>
+        <v>289</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>195</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>194</v>
+        <v>162</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3841,19 +3853,16 @@
         <v>137</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>193</v>
+        <v>163</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3861,55 +3870,75 @@
         <v>137</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E118" s="6" t="s">
+      <c r="E119" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="F118" s="13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="14" t="s">
+      <c r="F119" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B120" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C119" s="14" t="s">
+      <c r="C120" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E120" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F119" s="13" t="s">
+      <c r="F120" s="13" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B121" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C121" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E120" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F120" s="13" t="s">
+      <c r="E121" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F121" s="13" t="s">
         <v>340</v>
       </c>
     </row>

--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.4.1-us\InputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.4.2-us-wipC\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18180" windowHeight="8730" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="18180" windowHeight="8730"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="442">
   <si>
     <t>Top Level Folder</t>
   </si>
@@ -1335,6 +1335,18 @@
   </si>
   <si>
     <t>Flexibility Points Provided Per Unit Peaker Capacity, Flexibility Points Provided per Unit Pumped Hydro, Flexibility Points Provided per Unit Battery Storage, Flexibility Points Provided per Unit Demand Response Capacity, FPC Flexibility Points Provided per Unit Transmission Capacity Across Modeled Region Border, BAU Transmission Connectivity Coefficient, Curtailment Third Order Coeff, Curtailment Second Order Coeff, Curtailment First Order Coeff, Curtailment Zeroth Order Coeff, Target Maximum Fraction of Flexibility Points Used</t>
+  </si>
+  <si>
+    <t>Separately Regulated Pollutants by Vehicle Type</t>
+  </si>
+  <si>
+    <t>SRPbVT</t>
+  </si>
+  <si>
+    <t>FPCbS</t>
+  </si>
+  <si>
+    <t>Flexibility Points Consumed by Source</t>
   </si>
 </sst>
 </file>
@@ -1764,7 +1776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2096,9 +2108,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -2944,32 +2956,32 @@
         <v>278</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>253</v>
+        <v>440</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>375</v>
+        <v>252</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2977,13 +2989,13 @@
         <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>146</v>
+        <v>219</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2991,13 +3003,13 @@
         <v>57</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>291</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>147</v>
+        <v>82</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3005,13 +3017,13 @@
         <v>57</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>291</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>148</v>
+        <v>304</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3019,13 +3031,13 @@
         <v>57</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>147</v>
+        <v>83</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -3033,10 +3045,10 @@
         <v>57</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>147</v>
@@ -3047,13 +3059,13 @@
         <v>57</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>149</v>
+        <v>221</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3061,13 +3073,13 @@
         <v>57</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>269</v>
+        <v>70</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>146</v>
+        <v>84</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3075,61 +3087,58 @@
         <v>57</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>268</v>
+        <v>300</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E70" s="14" t="s">
-        <v>375</v>
+        <v>268</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3137,13 +3146,16 @@
         <v>57</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>146</v>
+        <v>273</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3151,27 +3163,27 @@
         <v>57</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E72" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>147</v>
+      <c r="E73" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3179,10 +3191,10 @@
         <v>407</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>147</v>
@@ -3193,10 +3205,10 @@
         <v>407</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>147</v>
@@ -3207,10 +3219,10 @@
         <v>407</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>147</v>
@@ -3221,10 +3233,10 @@
         <v>407</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>147</v>
@@ -3235,24 +3247,24 @@
         <v>407</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>262</v>
+        <v>409</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>261</v>
+        <v>410</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>407</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>147</v>
@@ -3263,24 +3275,24 @@
         <v>407</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>407</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>427</v>
+        <v>281</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>428</v>
+        <v>282</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>147</v>
@@ -3288,44 +3300,44 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>86</v>
+        <v>407</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>87</v>
+        <v>427</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>394</v>
+        <v>91</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>326</v>
+        <v>88</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>327</v>
+        <v>92</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>146</v>
@@ -3336,44 +3348,44 @@
         <v>86</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>89</v>
+        <v>326</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E86" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E87" s="14" t="s">
-        <v>375</v>
+      <c r="E87" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3381,10 +3393,10 @@
         <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>97</v>
+        <v>302</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>104</v>
+        <v>303</v>
       </c>
       <c r="E88" s="14" t="s">
         <v>375</v>
@@ -3395,13 +3407,13 @@
         <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>292</v>
+        <v>97</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>148</v>
+        <v>104</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3409,27 +3421,27 @@
         <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>98</v>
+        <v>240</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>147</v>
+        <v>241</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3437,27 +3449,27 @@
         <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>395</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>148</v>
@@ -3468,44 +3480,44 @@
         <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>294</v>
+        <v>100</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>101</v>
+        <v>294</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>284</v>
+        <v>101</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>147</v>
+        <v>108</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3513,13 +3525,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>413</v>
+        <v>284</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>148</v>
+        <v>285</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3527,10 +3539,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>148</v>
@@ -3541,13 +3553,13 @@
         <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>147</v>
+        <v>417</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3555,72 +3567,72 @@
         <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>102</v>
+        <v>415</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>283</v>
+        <v>418</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E101" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="E102" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>137</v>
+        <v>305</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E103" s="14" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>307</v>
+        <v>137</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3628,13 +3640,13 @@
         <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>146</v>
+        <v>308</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3642,27 +3654,27 @@
         <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>239</v>
+        <v>311</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>147</v>
+        <v>316</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3670,27 +3682,27 @@
         <v>136</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>138</v>
+        <v>239</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>312</v>
+        <v>138</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3698,13 +3710,13 @@
         <v>136</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E110" s="14" t="s">
-        <v>375</v>
+        <v>313</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3712,27 +3724,27 @@
         <v>136</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E111" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>258</v>
+      <c r="E112" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3740,10 +3752,10 @@
         <v>254</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>258</v>
@@ -3754,10 +3766,10 @@
         <v>254</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>256</v>
+        <v>392</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>257</v>
+        <v>393</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>258</v>
@@ -3765,16 +3777,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>111</v>
+        <v>254</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>112</v>
+        <v>256</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>113</v>
+        <v>257</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>149</v>
+        <v>258</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -3782,13 +3794,13 @@
         <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>286</v>
+        <v>112</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>288</v>
+        <v>113</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>290</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3796,10 +3808,10 @@
         <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>290</v>
@@ -3807,16 +3819,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>115</v>
+        <v>287</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>147</v>
+        <v>289</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3824,13 +3836,13 @@
         <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>148</v>
+        <v>124</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3838,69 +3850,69 @@
         <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>419</v>
+        <v>116</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>381</v>
+        <v>419</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>146</v>
+        <v>350</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3908,10 +3920,10 @@
         <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>146</v>
@@ -3922,41 +3934,41 @@
         <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>148</v>
+        <v>355</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3964,41 +3976,41 @@
         <v>114</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E129" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="13" t="s">
+      <c r="E130" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B130" s="13" t="s">
+      <c r="B131" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="C130" s="13" t="s">
+      <c r="C131" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="E130" s="7" t="s">
+      <c r="E131" s="7" t="s">
         <v>423</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -4006,13 +4018,13 @@
         <v>114</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>117</v>
+        <v>356</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>148</v>
+        <v>357</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -4020,10 +4032,10 @@
         <v>114</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>148</v>
@@ -4034,10 +4046,10 @@
         <v>114</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>148</v>
@@ -4048,13 +4060,13 @@
         <v>114</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>147</v>
+        <v>128</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -4062,13 +4074,13 @@
         <v>114</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>146</v>
+        <v>129</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -4076,13 +4088,13 @@
         <v>114</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>433</v>
+        <v>121</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>362</v>
+        <v>130</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -4090,13 +4102,13 @@
         <v>114</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="E138" s="6" t="s">
-        <v>148</v>
+        <v>434</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -4104,13 +4116,13 @@
         <v>114</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>360</v>
+        <v>435</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>362</v>
+        <v>436</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -4118,41 +4130,41 @@
         <v>114</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>122</v>
+        <v>340</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>148</v>
+        <v>341</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -4160,38 +4172,38 @@
         <v>114</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>343</v>
+        <v>122</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>123</v>
+        <v>343</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>132</v>
+        <v>344</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>358</v>
+        <v>123</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>359</v>
+        <v>132</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>147</v>
@@ -4202,27 +4214,27 @@
         <v>114</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E146" s="16" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>147</v>
+        <v>371</v>
+      </c>
+      <c r="E147" s="16" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -4230,27 +4242,27 @@
         <v>114</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>347</v>
+        <v>439</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>348</v>
+        <v>438</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E149" s="14" t="s">
-        <v>375</v>
+        <v>367</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -4258,41 +4270,38 @@
         <v>114</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="E150" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>134</v>
+        <v>336</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="E151" s="6" t="s">
-        <v>148</v>
+        <v>337</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>148</v>
@@ -4303,32 +4312,63 @@
         <v>133</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>372</v>
+        <v>134</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>373</v>
+        <v>135</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C156" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D156" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E154" s="6" t="s">
+      <c r="E156" s="6" t="s">
         <v>148</v>
       </c>
     </row>
